--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1457714.073544585</v>
+        <v>1490292.288059785</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584666</v>
+        <v>460545.8926584664</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075578</v>
+        <v>8768687.110075586</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>18.29749587628862</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -701,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>48.33991917040778</v>
+        <v>56.1181324033527</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -908,13 +910,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>222.3396163656984</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -941,10 +943,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -975,22 +977,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.4678513105504</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>61.67098284419541</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1096,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1190,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>214.0077506398264</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1218,13 +1220,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1233,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>182.7764307090104</v>
+        <v>14.12036407145876</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1275,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>226.5674513251595</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.089049841944</v>
+        <v>26.1768118975744</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1537,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>36.48436605884934</v>
       </c>
       <c r="G13" t="n">
-        <v>10.5421541965934</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
         <v>157.3867970498209</v>
@@ -1570,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>44.40081800053729</v>
+        <v>298.619603184394</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1624,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>163.6851955497072</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S14" t="n">
         <v>181.3631617334038</v>
@@ -1701,7 +1703,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
         <v>67.03858805571424</v>
@@ -1737,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>159.8926002746995</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="U15" t="n">
         <v>225.8986597023843</v>
@@ -1841,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>358.619576408006</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1889,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>278.6146044676578</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1920,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>135.7839114894719</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1941,7 +1943,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T18" t="n">
         <v>197.5472709665096</v>
@@ -1983,10 +1985,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>94.38897766723555</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2023,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
-        <v>115.927487311963</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>214.1067157869813</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>17.85537860102083</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2126,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
-        <v>53.14246871389697</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>96.38140405642858</v>
       </c>
       <c r="T21" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V21" t="n">
-        <v>155.4595575521395</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2318,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2375,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>209.1581822770991</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>351.8251894796513</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2412,7 +2414,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>67.03858805571426</v>
@@ -2442,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8986597023843</v>
+        <v>135.3166517144995</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2476,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>86.58819153171414</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>88.59832967195037</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>117.8895498199116</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S26" t="n">
-        <v>179.8684248356467</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2651,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>15.60609219526603</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S27" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
-        <v>60.36693997173244</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2700,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>111.5887103733622</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>208.186039944154</v>
       </c>
     </row>
     <row r="29">
@@ -2789,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>107.208875458605</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>414.089049841944</v>
@@ -2837,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>100.779837787452</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>9.227178156182845</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2877,19 +2879,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>143.3680272159724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S30" t="n">
         <v>159.6212195484502</v>
@@ -2934,7 +2936,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2965,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>218.0460639929609</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>110.9705324835873</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>76.97307036798003</v>
       </c>
       <c r="U32" t="n">
-        <v>243.5016583847865</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3120,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S33" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
-        <v>60.36693997173244</v>
+        <v>172.5161931289808</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.5887103733622</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3193,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>115.1165353722832</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>283.18164513315</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>89.82783622839023</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3326,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3362,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>29.38391736390365</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
         <v>225.8986597023843</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>162.3083647370541</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,16 +3438,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.03029935583487</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>352.0248783365585</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>383.3800865150218</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3597,7 +3599,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S39" t="n">
-        <v>29.38391736390425</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>197.5472709665096</v>
+        <v>61.12808787351305</v>
       </c>
       <c r="U39" t="n">
         <v>225.8986597023843</v>
@@ -3667,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>85.01043530101133</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3679,7 +3681,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>85.0104353010119</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3743,10 +3745,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3755,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>94.61441266504295</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>66.23167121454985</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3825,7 +3827,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>104.262613881998</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3837,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S42" t="n">
         <v>159.6212195484502</v>
@@ -3873,7 +3875,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8986597023843</v>
+        <v>105.4776050732666</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,31 +3897,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>30.14164366481007</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.1860399441541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3983,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>398.6607602399733</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2485578939812</v>
@@ -4037,10 +4039,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>52.8934935707792</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4059,22 +4061,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>91.6867458199809</v>
+        <v>87.08036771626159</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S45" t="n">
         <v>159.6212195484502</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>25.82464390483378</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.6194376234954</v>
+        <v>218.0460639929609</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>518.2486856454962</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C2" t="n">
-        <v>518.2486856454962</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D2" t="n">
-        <v>518.2486856454962</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E2" t="n">
-        <v>518.2486856454962</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F2" t="n">
-        <v>274.7999090013961</v>
+        <v>65.29076204560282</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>49.83345142425428</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>49.83345142425428</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="Y2" t="n">
-        <v>761.6974622895962</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>168.9696854242497</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="C3" t="n">
-        <v>168.9696854242497</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>461.2466632505798</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>412.4184620683498</v>
+        <v>907.3721732850274</v>
       </c>
       <c r="W3" t="n">
-        <v>168.9696854242497</v>
+        <v>663.9233966409274</v>
       </c>
       <c r="X3" t="n">
-        <v>168.9696854242497</v>
+        <v>456.0718964353946</v>
       </c>
       <c r="Y3" t="n">
-        <v>168.9696854242497</v>
+        <v>248.3115976704407</v>
       </c>
     </row>
     <row r="4">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.5825927271064</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C5" t="n">
-        <v>802.5825927271064</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D5" t="n">
-        <v>802.5825927271064</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E5" t="n">
-        <v>802.5825927271064</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="F5" t="n">
-        <v>559.1338160830064</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="G5" t="n">
-        <v>315.6850394389064</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4589,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.5825927271064</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>282.3388210166704</v>
+        <v>500.260318022696</v>
       </c>
       <c r="C6" t="n">
-        <v>282.3388210166704</v>
+        <v>325.807288741569</v>
       </c>
       <c r="D6" t="n">
-        <v>133.4044113554191</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E6" t="n">
-        <v>133.4044113554191</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F6" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4653,13 +4655,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4668,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>668.4756550427639</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>668.4756550427639</v>
       </c>
       <c r="V6" t="n">
-        <v>901.7632334457924</v>
+        <v>668.4756550427639</v>
       </c>
       <c r="W6" t="n">
-        <v>658.3144568016924</v>
+        <v>668.4756550427639</v>
       </c>
       <c r="X6" t="n">
-        <v>658.3144568016924</v>
+        <v>668.4756550427639</v>
       </c>
       <c r="Y6" t="n">
-        <v>450.5541580367384</v>
+        <v>668.4756550427639</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4744,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>737.7960950516754</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C8" t="n">
-        <v>737.7960950516754</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D8" t="n">
-        <v>737.7960950516754</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E8" t="n">
-        <v>737.7960950516754</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4838,16 +4840,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>737.7960950516754</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W8" t="n">
-        <v>737.7960950516754</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X8" t="n">
-        <v>737.7960950516754</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y8" t="n">
-        <v>737.7960950516754</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>168.215552771464</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="C9" t="n">
-        <v>168.215552771464</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4890,7 +4892,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
         <v>542.809531908403</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>779.4344982288076</v>
+        <v>848.6246320519474</v>
       </c>
       <c r="U9" t="n">
-        <v>779.4344982288076</v>
+        <v>848.6246320519474</v>
       </c>
       <c r="V9" t="n">
-        <v>544.2823899970649</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="W9" t="n">
-        <v>544.2823899970649</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="X9" t="n">
-        <v>336.430889791532</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="Y9" t="n">
-        <v>336.430889791532</v>
+        <v>613.4725238202047</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4999,13 +5001,13 @@
         <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2344.749822082216</v>
+        <v>1228.376076575211</v>
       </c>
       <c r="C11" t="n">
-        <v>2115.893810642661</v>
+        <v>1228.376076575211</v>
       </c>
       <c r="D11" t="n">
-        <v>1757.628112035911</v>
+        <v>870.1103779684602</v>
       </c>
       <c r="E11" t="n">
-        <v>1371.839859437666</v>
+        <v>484.3221253702159</v>
       </c>
       <c r="F11" t="n">
-        <v>960.8539546480588</v>
+        <v>73.33622058060837</v>
       </c>
       <c r="G11" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H11" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
@@ -5078,13 +5080,13 @@
         <v>2344.749822082216</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.749822082216</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="X11" t="n">
-        <v>2344.749822082216</v>
+        <v>1618.515408551022</v>
       </c>
       <c r="Y11" t="n">
-        <v>2344.749822082216</v>
+        <v>1228.376076575211</v>
       </c>
     </row>
     <row r="12">
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F13" t="n">
-        <v>412.4263787765005</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G13" t="n">
         <v>401.7777381738809</v>
@@ -5218,31 +5220,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1774.954869156071</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="C14" t="n">
-        <v>1730.105558044417</v>
+        <v>1785.545201316702</v>
       </c>
       <c r="D14" t="n">
-        <v>1371.839859437666</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="E14" t="n">
-        <v>1371.839859437666</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="F14" t="n">
-        <v>960.8539546480588</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G14" t="n">
-        <v>542.5821871309436</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H14" t="n">
         <v>212.2335778049849</v>
@@ -5279,10 +5281,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275677</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L14" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M14" t="n">
         <v>1190.549107376119</v>
@@ -5300,28 +5302,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S14" t="n">
-        <v>2161.554709220192</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T14" t="n">
-        <v>2161.554709220192</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U14" t="n">
-        <v>2161.554709220192</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="V14" t="n">
-        <v>2161.554709220192</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="W14" t="n">
-        <v>2161.554709220192</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="X14" t="n">
-        <v>2161.554709220192</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="Y14" t="n">
-        <v>2161.554709220192</v>
+        <v>2087.181164129222</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>881.8450797407235</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C15" t="n">
-        <v>707.3920504595965</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D15" t="n">
-        <v>558.4576407983452</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E15" t="n">
-        <v>399.2201857928898</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F15" t="n">
-        <v>252.6856278197748</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G15" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H15" t="n">
         <v>114.6107419524668</v>
@@ -5385,22 +5387,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T15" t="n">
-        <v>2183.242145037065</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U15" t="n">
-        <v>1955.061680691222</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V15" t="n">
-        <v>1719.90957245948</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W15" t="n">
-        <v>1465.672215731278</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X15" t="n">
-        <v>1257.820715525745</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y15" t="n">
-        <v>1050.060416760791</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="16">
@@ -5489,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>457.8809012312519</v>
+        <v>767.4026914201181</v>
       </c>
       <c r="C17" t="n">
-        <v>457.8809012312519</v>
+        <v>767.4026914201181</v>
       </c>
       <c r="D17" t="n">
-        <v>457.8809012312519</v>
+        <v>409.1369928133676</v>
       </c>
       <c r="E17" t="n">
-        <v>457.8809012312519</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F17" t="n">
         <v>46.89499644164432</v>
@@ -5513,13 +5515,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L17" t="n">
-        <v>762.5916738244553</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M17" t="n">
         <v>1190.549107376119</v>
@@ -5543,22 +5545,22 @@
         <v>2270.376276991246</v>
       </c>
       <c r="T17" t="n">
-        <v>2050.393517622824</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U17" t="n">
-        <v>1796.607095507691</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V17" t="n">
-        <v>1465.54420816412</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W17" t="n">
-        <v>1112.775552894006</v>
+        <v>1917.607621721131</v>
       </c>
       <c r="X17" t="n">
-        <v>739.3097946329265</v>
+        <v>1544.141863460052</v>
       </c>
       <c r="Y17" t="n">
-        <v>457.8809012312519</v>
+        <v>1154.00253148424</v>
       </c>
     </row>
     <row r="18">
@@ -5568,7 +5570,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>951.5816570746283</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C18" t="n">
         <v>814.4261909236466</v>
@@ -5595,7 +5597,7 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K18" t="n">
-        <v>336.0641406922997</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L18" t="n">
         <v>705.6153558007836</v>
@@ -5604,7 +5606,7 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O18" t="n">
         <v>1887.88481026779</v>
@@ -5619,25 +5621,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S18" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T18" t="n">
-        <v>2084.763385350902</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U18" t="n">
-        <v>1856.582921005059</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V18" t="n">
-        <v>1621.430812773317</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W18" t="n">
-        <v>1367.193456045115</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="X18" t="n">
-        <v>1159.341955839582</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y18" t="n">
-        <v>951.5816570746283</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="C19" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="D19" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="E19" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="F19" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="G19" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="H19" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="I19" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J19" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K19" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L19" t="n">
         <v>194.9121237200978</v>
@@ -5695,28 +5697,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R19" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U19" t="n">
-        <v>453.4106385108907</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V19" t="n">
-        <v>336.3121664786049</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W19" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="X19" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1697.622043125546</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="C20" t="n">
-        <v>1697.622043125546</v>
+        <v>560.6179230915707</v>
       </c>
       <c r="D20" t="n">
-        <v>1339.356344518795</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="E20" t="n">
-        <v>953.5680919205511</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="F20" t="n">
         <v>542.5821871309436</v>
@@ -5750,16 +5752,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L20" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5774,28 +5776,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S20" t="n">
-        <v>2291.070560755048</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T20" t="n">
-        <v>2071.087801386626</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U20" t="n">
-        <v>2071.087801386626</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V20" t="n">
-        <v>2071.087801386626</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.087801386626</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X20" t="n">
-        <v>1697.622043125546</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="Y20" t="n">
-        <v>1697.622043125546</v>
+        <v>929.5804400319823</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.8792202047736</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C21" t="n">
-        <v>814.4261909236466</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D21" t="n">
-        <v>665.4917812623953</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E21" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F21" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G21" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H21" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K21" t="n">
-        <v>121.6684232076319</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L21" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M21" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N21" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O21" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P21" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S21" t="n">
-        <v>2183.516266982771</v>
+        <v>2186.951129704519</v>
       </c>
       <c r="T21" t="n">
-        <v>1983.973569036802</v>
+        <v>1987.40843175855</v>
       </c>
       <c r="U21" t="n">
-        <v>1983.973569036802</v>
+        <v>1759.227967412707</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.94371292353</v>
+        <v>1759.227967412707</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.706356195328</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.854855989795</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y21" t="n">
-        <v>1157.094557224842</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="22">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>630.5053453221001</v>
+        <v>1212.631670769908</v>
       </c>
       <c r="C23" t="n">
-        <v>630.5053453221001</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="D23" t="n">
-        <v>630.5053453221001</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E23" t="n">
-        <v>630.5053453221001</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F23" t="n">
-        <v>630.5053453221001</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G23" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L23" t="n">
         <v>762.591673824455</v>
@@ -6008,31 +6010,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V23" t="n">
-        <v>2133.478930893228</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W23" t="n">
-        <v>1780.710275623113</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X23" t="n">
-        <v>1407.244517362034</v>
+        <v>1989.370842809841</v>
       </c>
       <c r="Y23" t="n">
-        <v>1017.105185386222</v>
+        <v>1599.231510834029</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.8792202047736</v>
+        <v>881.8450797407235</v>
       </c>
       <c r="C24" t="n">
-        <v>814.4261909236466</v>
+        <v>707.3920504595965</v>
       </c>
       <c r="D24" t="n">
-        <v>665.4917812623953</v>
+        <v>558.4576407983452</v>
       </c>
       <c r="E24" t="n">
-        <v>506.2543262569397</v>
+        <v>399.2201857928898</v>
       </c>
       <c r="F24" t="n">
-        <v>359.7197682838247</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G24" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H24" t="n">
         <v>114.6107419524668</v>
@@ -6066,16 +6068,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K24" t="n">
-        <v>273.1268607498447</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L24" t="n">
-        <v>642.6780758583286</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M24" t="n">
-        <v>1125.906134925503</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N24" t="n">
         <v>1637.630816213677</v>
@@ -6090,28 +6092,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S24" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T24" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U24" t="n">
-        <v>2062.095821155272</v>
+        <v>1786.846343671155</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.94371292353</v>
+        <v>1551.694235439412</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.706356195328</v>
+        <v>1297.45687871121</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.854855989795</v>
+        <v>1089.605378505677</v>
       </c>
       <c r="Y24" t="n">
-        <v>1157.094557224842</v>
+        <v>881.8450797407235</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2190.391887156797</v>
+        <v>136.3882587365437</v>
       </c>
       <c r="C25" t="n">
-        <v>2021.45570422889</v>
+        <v>136.3882587365437</v>
       </c>
       <c r="D25" t="n">
-        <v>1871.339064816554</v>
+        <v>136.3882587365437</v>
       </c>
       <c r="E25" t="n">
-        <v>1783.87624508755</v>
+        <v>136.3882587365437</v>
       </c>
       <c r="F25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K25" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702973</v>
       </c>
       <c r="L25" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M25" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362073</v>
       </c>
       <c r="N25" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228446</v>
       </c>
       <c r="O25" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496712</v>
       </c>
       <c r="P25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="Q25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="R25" t="n">
-        <v>2190.391887156797</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="S25" t="n">
-        <v>2190.391887156797</v>
+        <v>391.0727469424306</v>
       </c>
       <c r="T25" t="n">
-        <v>2190.391887156797</v>
+        <v>391.0727469424306</v>
       </c>
       <c r="U25" t="n">
-        <v>2190.391887156797</v>
+        <v>391.0727469424306</v>
       </c>
       <c r="V25" t="n">
-        <v>2190.391887156797</v>
+        <v>136.3882587365437</v>
       </c>
       <c r="W25" t="n">
-        <v>2190.391887156797</v>
+        <v>136.3882587365437</v>
       </c>
       <c r="X25" t="n">
-        <v>2190.391887156797</v>
+        <v>136.3882587365437</v>
       </c>
       <c r="Y25" t="n">
-        <v>2190.391887156797</v>
+        <v>136.3882587365437</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1757.628112035911</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C26" t="n">
-        <v>1757.628112035911</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D26" t="n">
-        <v>1757.628112035911</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E26" t="n">
-        <v>1371.839859437666</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F26" t="n">
-        <v>960.8539546480588</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G26" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H26" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915532</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275672</v>
       </c>
       <c r="L26" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N26" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O26" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P26" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q26" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2270.376276991246</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S26" t="n">
-        <v>2088.690999379481</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="T26" t="n">
-        <v>2088.690999379481</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="U26" t="n">
-        <v>2088.690999379481</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V26" t="n">
-        <v>1757.628112035911</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W26" t="n">
-        <v>1757.628112035911</v>
+        <v>929.5804400319819</v>
       </c>
       <c r="X26" t="n">
-        <v>1757.628112035911</v>
+        <v>556.1146817709021</v>
       </c>
       <c r="Y26" t="n">
-        <v>1757.628112035911</v>
+        <v>165.9753497950903</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.8792202047736</v>
+        <v>829.8930637200688</v>
       </c>
       <c r="C27" t="n">
-        <v>814.4261909236466</v>
+        <v>655.4400344389418</v>
       </c>
       <c r="D27" t="n">
-        <v>665.4917812623953</v>
+        <v>506.5056247776905</v>
       </c>
       <c r="E27" t="n">
-        <v>506.2543262569397</v>
+        <v>347.268169772235</v>
       </c>
       <c r="F27" t="n">
-        <v>359.7197682838247</v>
+        <v>200.73361179912</v>
       </c>
       <c r="G27" t="n">
-        <v>221.6448824165167</v>
+        <v>62.65872593181203</v>
       </c>
       <c r="H27" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
@@ -6306,22 +6308,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498445</v>
       </c>
       <c r="L27" t="n">
-        <v>645.6158192373775</v>
+        <v>642.6780758583284</v>
       </c>
       <c r="M27" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N27" t="n">
-        <v>1640.568559592725</v>
+        <v>1637.630816213676</v>
       </c>
       <c r="O27" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P27" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
@@ -6333,22 +6335,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T27" t="n">
-        <v>2123.072528197426</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U27" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y27" t="n">
-        <v>1157.094557224842</v>
+        <v>998.1084007401369</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>318.5874281822333</v>
+        <v>215.8311793695512</v>
       </c>
       <c r="C28" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D28" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E28" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F28" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G28" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H28" t="n">
         <v>46.89499644164432</v>
@@ -6385,49 +6387,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K28" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L28" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M28" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N28" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O28" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P28" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q28" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R28" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S28" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T28" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U28" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V28" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W28" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X28" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Y28" t="n">
-        <v>318.5874281822333</v>
+        <v>397.4796441997909</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1700.5813240651</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="C29" t="n">
-        <v>1700.5813240651</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="D29" t="n">
-        <v>1592.28953067257</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="E29" t="n">
-        <v>1206.501278074326</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="F29" t="n">
         <v>795.5153732847182</v>
@@ -6461,16 +6463,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L29" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M29" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N29" t="n">
         <v>1610.799342072557</v>
@@ -6479,34 +6481,34 @@
         <v>1962.442083972113</v>
       </c>
       <c r="P29" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q29" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S29" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T29" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U29" t="n">
-        <v>2087.181164129222</v>
+        <v>2242.952006135295</v>
       </c>
       <c r="V29" t="n">
-        <v>2087.181164129222</v>
+        <v>1911.889118791724</v>
       </c>
       <c r="W29" t="n">
-        <v>2087.181164129222</v>
+        <v>1559.12046352161</v>
       </c>
       <c r="X29" t="n">
-        <v>2087.181164129222</v>
+        <v>1185.65470526053</v>
       </c>
       <c r="Y29" t="n">
-        <v>2087.181164129222</v>
+        <v>795.5153732847182</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C30" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D30" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E30" t="n">
-        <v>153.9291369056942</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F30" t="n">
-        <v>153.9291369056942</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G30" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H30" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
@@ -6543,13 +6545,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>121.6684232076319</v>
+        <v>121.6684232076318</v>
       </c>
       <c r="L30" t="n">
-        <v>491.2196383161158</v>
+        <v>491.2196383161157</v>
       </c>
       <c r="M30" t="n">
-        <v>974.4476973832902</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N30" t="n">
         <v>1486.172378671464</v>
@@ -6576,16 +6578,16 @@
         <v>1695.349365905614</v>
       </c>
       <c r="V30" t="n">
-        <v>1460.197257673872</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W30" t="n">
         <v>1205.95990094567</v>
       </c>
       <c r="X30" t="n">
-        <v>998.1084007401373</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="Y30" t="n">
-        <v>790.3481019751835</v>
+        <v>998.1996021807158</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="C31" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="D31" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="E31" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="F31" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="G31" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H31" t="n">
         <v>46.89499644164432</v>
@@ -6622,49 +6624,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K31" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L31" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M31" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N31" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O31" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P31" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q31" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R31" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S31" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T31" t="n">
-        <v>607.7685734363102</v>
+        <v>387.5200239484708</v>
       </c>
       <c r="U31" t="n">
-        <v>607.7685734363102</v>
+        <v>387.5200239484708</v>
       </c>
       <c r="V31" t="n">
-        <v>607.7685734363102</v>
+        <v>387.5200239484708</v>
       </c>
       <c r="W31" t="n">
-        <v>495.6771264831918</v>
+        <v>387.5200239484708</v>
       </c>
       <c r="X31" t="n">
-        <v>267.6875755851744</v>
+        <v>387.5200239484708</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.89499644164432</v>
+        <v>387.5200239484708</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1041.491250111708</v>
+        <v>1490.260073913009</v>
       </c>
       <c r="C32" t="n">
-        <v>1041.491250111708</v>
+        <v>1121.297556972598</v>
       </c>
       <c r="D32" t="n">
-        <v>1041.491250111708</v>
+        <v>763.0318583658473</v>
       </c>
       <c r="E32" t="n">
-        <v>1041.491250111708</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F32" t="n">
-        <v>630.5053453221001</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G32" t="n">
-        <v>212.2335778049849</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H32" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
@@ -6707,7 +6709,7 @@
         <v>762.591673824455</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N32" t="n">
         <v>1610.799342072557</v>
@@ -6716,34 +6718,34 @@
         <v>1962.442083972113</v>
       </c>
       <c r="P32" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S32" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="T32" t="n">
-        <v>2344.749822082216</v>
+        <v>2266.999245952943</v>
       </c>
       <c r="U32" t="n">
-        <v>2098.788550986472</v>
+        <v>2266.999245952943</v>
       </c>
       <c r="V32" t="n">
-        <v>1767.725663642902</v>
+        <v>2266.999245952943</v>
       </c>
       <c r="W32" t="n">
-        <v>1414.957008372787</v>
+        <v>2266.999245952943</v>
       </c>
       <c r="X32" t="n">
-        <v>1041.491250111708</v>
+        <v>2266.999245952943</v>
       </c>
       <c r="Y32" t="n">
-        <v>1041.491250111708</v>
+        <v>1876.859913977131</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.8792202047736</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C33" t="n">
-        <v>814.4261909236466</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D33" t="n">
-        <v>665.4917812623953</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E33" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147593</v>
       </c>
       <c r="F33" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G33" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
@@ -6795,7 +6797,7 @@
         <v>2042.280991189052</v>
       </c>
       <c r="P33" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
@@ -6807,22 +6809,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T33" t="n">
-        <v>2123.072528197426</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U33" t="n">
-        <v>2062.095821155272</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.94371292353</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.706356195328</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.854855989795</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y33" t="n">
-        <v>1157.094557224842</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>205.8715591182311</v>
+        <v>163.1743251005162</v>
       </c>
       <c r="C34" t="n">
-        <v>205.8715591182311</v>
+        <v>163.1743251005162</v>
       </c>
       <c r="D34" t="n">
-        <v>205.8715591182311</v>
+        <v>163.1743251005162</v>
       </c>
       <c r="E34" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F34" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G34" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H34" t="n">
         <v>46.89499644164432</v>
@@ -6859,49 +6861,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K34" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L34" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M34" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N34" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O34" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P34" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q34" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R34" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S34" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="T34" t="n">
-        <v>607.7685734363102</v>
+        <v>163.1743251005162</v>
       </c>
       <c r="U34" t="n">
-        <v>318.5874281822333</v>
+        <v>163.1743251005162</v>
       </c>
       <c r="V34" t="n">
-        <v>318.5874281822333</v>
+        <v>163.1743251005162</v>
       </c>
       <c r="W34" t="n">
-        <v>318.5874281822333</v>
+        <v>163.1743251005162</v>
       </c>
       <c r="X34" t="n">
-        <v>318.5874281822333</v>
+        <v>163.1743251005162</v>
       </c>
       <c r="Y34" t="n">
-        <v>318.5874281822333</v>
+        <v>163.1743251005162</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1901.245978702617</v>
+        <v>1120.171346690232</v>
       </c>
       <c r="C35" t="n">
-        <v>1532.283461762205</v>
+        <v>751.2088297498201</v>
       </c>
       <c r="D35" t="n">
-        <v>1174.017763155455</v>
+        <v>751.2088297498201</v>
       </c>
       <c r="E35" t="n">
-        <v>788.2295105572106</v>
+        <v>751.2088297498201</v>
       </c>
       <c r="F35" t="n">
-        <v>377.243605767603</v>
+        <v>751.2088297498201</v>
       </c>
       <c r="G35" t="n">
-        <v>377.243605767603</v>
+        <v>332.9370622327049</v>
       </c>
       <c r="H35" t="n">
         <v>46.89499644164432</v>
@@ -6935,16 +6937,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M35" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N35" t="n">
         <v>1610.799342072557</v>
@@ -6953,34 +6955,34 @@
         <v>1962.442083972113</v>
       </c>
       <c r="P35" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q35" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="T35" t="n">
-        <v>2254.014633972731</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="U35" t="n">
-        <v>2254.014633972731</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="V35" t="n">
-        <v>2254.014633972731</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="W35" t="n">
-        <v>1901.245978702617</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="X35" t="n">
-        <v>1901.245978702617</v>
+        <v>1896.910518730165</v>
       </c>
       <c r="Y35" t="n">
-        <v>1901.245978702617</v>
+        <v>1506.771186754353</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.8792202047736</v>
+        <v>843.8100588399047</v>
       </c>
       <c r="C36" t="n">
-        <v>814.4261909236466</v>
+        <v>669.3570295587778</v>
       </c>
       <c r="D36" t="n">
-        <v>665.4917812623953</v>
+        <v>520.4226198975265</v>
       </c>
       <c r="E36" t="n">
-        <v>506.2543262569397</v>
+        <v>361.185164892071</v>
       </c>
       <c r="F36" t="n">
-        <v>359.7197682838247</v>
+        <v>214.650606918956</v>
       </c>
       <c r="G36" t="n">
-        <v>221.6448824165167</v>
+        <v>76.575721051648</v>
       </c>
       <c r="H36" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
@@ -7017,16 +7019,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K36" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498445</v>
       </c>
       <c r="L36" t="n">
-        <v>645.6158192373775</v>
+        <v>642.6780758583284</v>
       </c>
       <c r="M36" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N36" t="n">
-        <v>1637.630816213677</v>
+        <v>1637.630816213676</v>
       </c>
       <c r="O36" t="n">
         <v>2039.343247810003</v>
@@ -7044,22 +7046,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T36" t="n">
-        <v>2290.276285501115</v>
+        <v>2145.207124136246</v>
       </c>
       <c r="U36" t="n">
-        <v>2062.095821155272</v>
+        <v>1917.026659790404</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.94371292353</v>
+        <v>1681.874551558661</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.706356195328</v>
+        <v>1427.63719483046</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.854855989795</v>
+        <v>1219.785694624927</v>
       </c>
       <c r="Y36" t="n">
-        <v>1157.094557224842</v>
+        <v>1012.025395859973</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>379.7790225382929</v>
+        <v>215.8311793695512</v>
       </c>
       <c r="C37" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D37" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E37" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F37" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G37" t="n">
-        <v>210.6410822848024</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H37" t="n">
-        <v>210.6410822848024</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I37" t="n">
-        <v>70.15792508390177</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J37" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K37" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L37" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N37" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O37" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P37" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q37" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R37" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S37" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T37" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U37" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V37" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W37" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X37" t="n">
-        <v>379.7790225382929</v>
+        <v>379.7790225382928</v>
       </c>
       <c r="Y37" t="n">
-        <v>379.7790225382929</v>
+        <v>379.7790225382928</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1989.169136893773</v>
+        <v>1958.149982018095</v>
       </c>
       <c r="C38" t="n">
-        <v>1620.206619953362</v>
+        <v>1589.187465077683</v>
       </c>
       <c r="D38" t="n">
-        <v>1261.940921346611</v>
+        <v>1230.921766470932</v>
       </c>
       <c r="E38" t="n">
-        <v>876.152668748367</v>
+        <v>845.1335138726881</v>
       </c>
       <c r="F38" t="n">
-        <v>465.1667639587595</v>
+        <v>434.1476090830806</v>
       </c>
       <c r="G38" t="n">
         <v>46.89499644164432</v>
@@ -7172,16 +7174,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.045321891553</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275671</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244546</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M38" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N38" t="n">
         <v>1610.799342072557</v>
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>814.129334229901</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C39" t="n">
-        <v>639.676304948774</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D39" t="n">
-        <v>490.7418952875228</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E39" t="n">
-        <v>331.5044402820673</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F39" t="n">
-        <v>184.9698823089523</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G39" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H39" t="n">
         <v>46.89499644164432</v>
@@ -7254,19 +7256,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K39" t="n">
-        <v>276.0646041288937</v>
+        <v>273.126860749845</v>
       </c>
       <c r="L39" t="n">
-        <v>645.6158192373777</v>
+        <v>642.6780758583288</v>
       </c>
       <c r="M39" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N39" t="n">
-        <v>1640.568559592726</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O39" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P39" t="n">
         <v>2344.749822082216</v>
@@ -7275,28 +7277,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S39" t="n">
-        <v>2315.069097472212</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T39" t="n">
-        <v>2115.526399526243</v>
+        <v>2222.560539990292</v>
       </c>
       <c r="U39" t="n">
-        <v>1887.3459351804</v>
+        <v>1994.38007564445</v>
       </c>
       <c r="V39" t="n">
-        <v>1652.193826948657</v>
+        <v>1759.227967412707</v>
       </c>
       <c r="W39" t="n">
-        <v>1397.956470220456</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X39" t="n">
-        <v>1190.104970014923</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y39" t="n">
-        <v>982.344671249969</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="C40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="D40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="E40" t="n">
-        <v>2344.749822082216</v>
+        <v>521.899446869632</v>
       </c>
       <c r="F40" t="n">
-        <v>2197.859874584306</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="G40" t="n">
-        <v>2028.721934330815</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H40" t="n">
-        <v>1869.745371654229</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L40" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M40" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N40" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O40" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Y40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
     </row>
     <row r="41">
@@ -7385,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1159.911464587051</v>
+        <v>841.7762365110884</v>
       </c>
       <c r="C41" t="n">
-        <v>790.948947646639</v>
+        <v>472.8137195706767</v>
       </c>
       <c r="D41" t="n">
-        <v>432.6832490398886</v>
+        <v>472.8137195706767</v>
       </c>
       <c r="E41" t="n">
-        <v>46.89499644164432</v>
+        <v>472.8137195706767</v>
       </c>
       <c r="F41" t="n">
-        <v>46.89499644164432</v>
+        <v>472.8137195706767</v>
       </c>
       <c r="G41" t="n">
-        <v>46.89499644164432</v>
+        <v>472.8137195706767</v>
       </c>
       <c r="H41" t="n">
-        <v>46.89499644164432</v>
+        <v>142.465110244718</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L41" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M41" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N41" t="n">
         <v>1610.799342072557</v>
@@ -7427,34 +7429,34 @@
         <v>1962.442083972113</v>
       </c>
       <c r="P41" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q41" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S41" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T41" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U41" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V41" t="n">
-        <v>1546.511304651172</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W41" t="n">
-        <v>1546.511304651172</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="X41" t="n">
-        <v>1546.511304651172</v>
+        <v>1618.515408551022</v>
       </c>
       <c r="Y41" t="n">
-        <v>1546.511304651172</v>
+        <v>1228.37607657521</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>622.1327649551154</v>
+        <v>743.7701938734157</v>
       </c>
       <c r="C42" t="n">
-        <v>447.6797356739884</v>
+        <v>569.3171645922887</v>
       </c>
       <c r="D42" t="n">
-        <v>298.7453260127371</v>
+        <v>420.3827549310374</v>
       </c>
       <c r="E42" t="n">
-        <v>193.4295544147594</v>
+        <v>261.1452999255819</v>
       </c>
       <c r="F42" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G42" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H42" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I42" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K42" t="n">
-        <v>336.0641406922997</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L42" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.568096156132</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O42" t="n">
-        <v>2102.280527752458</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P42" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
@@ -7521,19 +7523,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U42" t="n">
-        <v>1695.349365905614</v>
+        <v>1816.986794823915</v>
       </c>
       <c r="V42" t="n">
-        <v>1460.197257673872</v>
+        <v>1581.834686592172</v>
       </c>
       <c r="W42" t="n">
-        <v>1205.95990094567</v>
+        <v>1327.59732986397</v>
       </c>
       <c r="X42" t="n">
-        <v>998.1084007401373</v>
+        <v>1119.745829658438</v>
       </c>
       <c r="Y42" t="n">
-        <v>790.3481019751835</v>
+        <v>911.9855308934837</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>215.8311793695513</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C43" t="n">
-        <v>46.89499644164432</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="D43" t="n">
-        <v>46.89499644164432</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="E43" t="n">
-        <v>46.89499644164432</v>
+        <v>2314.303717370286</v>
       </c>
       <c r="F43" t="n">
-        <v>46.89499644164432</v>
+        <v>2167.413769872376</v>
       </c>
       <c r="G43" t="n">
-        <v>46.89499644164432</v>
+        <v>1998.275829618886</v>
       </c>
       <c r="H43" t="n">
-        <v>46.89499644164432</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="I43" t="n">
-        <v>46.89499644164432</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="J43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="K43" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L43" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N43" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.73670676875</v>
       </c>
       <c r="O43" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y43" t="n">
-        <v>397.479644199791</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>876.152668748367</v>
+        <v>1576.705399761488</v>
       </c>
       <c r="C44" t="n">
-        <v>876.152668748367</v>
+        <v>1576.705399761488</v>
       </c>
       <c r="D44" t="n">
-        <v>876.152668748367</v>
+        <v>1576.705399761488</v>
       </c>
       <c r="E44" t="n">
-        <v>876.152668748367</v>
+        <v>1190.917147163244</v>
       </c>
       <c r="F44" t="n">
-        <v>465.1667639587595</v>
+        <v>779.9312423736367</v>
       </c>
       <c r="G44" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H44" t="n">
         <v>46.89499644164432</v>
@@ -7646,52 +7648,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.045321891553</v>
+        <v>137.0453218915533</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275671</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L44" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M44" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N44" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O44" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P44" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q44" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S44" t="n">
-        <v>2087.181164129222</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T44" t="n">
-        <v>1867.1984047608</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="U44" t="n">
-        <v>1613.411982645667</v>
+        <v>1907.768287105059</v>
       </c>
       <c r="V44" t="n">
-        <v>1282.349095302096</v>
+        <v>1576.705399761488</v>
       </c>
       <c r="W44" t="n">
-        <v>929.5804400319823</v>
+        <v>1576.705399761488</v>
       </c>
       <c r="X44" t="n">
-        <v>876.152668748367</v>
+        <v>1576.705399761488</v>
       </c>
       <c r="Y44" t="n">
-        <v>876.152668748367</v>
+        <v>1576.705399761488</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>622.1327649551154</v>
+        <v>622.1327649551149</v>
       </c>
       <c r="C45" t="n">
-        <v>447.6797356739884</v>
+        <v>447.6797356739879</v>
       </c>
       <c r="D45" t="n">
-        <v>298.7453260127371</v>
+        <v>447.6797356739879</v>
       </c>
       <c r="E45" t="n">
-        <v>139.5078710072816</v>
+        <v>447.6797356739879</v>
       </c>
       <c r="F45" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G45" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H45" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>106.8945330050503</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K45" t="n">
-        <v>336.0641406922997</v>
+        <v>121.6684232076318</v>
       </c>
       <c r="L45" t="n">
-        <v>491.2196383161158</v>
+        <v>491.2196383161157</v>
       </c>
       <c r="M45" t="n">
-        <v>974.4476973832902</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N45" t="n">
         <v>1486.172378671464</v>
@@ -7761,16 +7763,16 @@
         <v>1695.349365905614</v>
       </c>
       <c r="V45" t="n">
-        <v>1460.197257673872</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W45" t="n">
         <v>1205.95990094567</v>
       </c>
       <c r="X45" t="n">
-        <v>998.1084007401373</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y45" t="n">
-        <v>790.3481019751835</v>
+        <v>790.348101975183</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>353.7846527006242</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="C46" t="n">
-        <v>353.7846527006242</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="D46" t="n">
-        <v>353.7846527006242</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="E46" t="n">
         <v>205.8715591182311</v>
@@ -7807,49 +7809,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K46" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L46" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M46" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N46" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O46" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P46" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q46" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R46" t="n">
-        <v>581.6830745425387</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S46" t="n">
-        <v>581.6830745425387</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T46" t="n">
-        <v>353.7846527006242</v>
+        <v>387.5200239484708</v>
       </c>
       <c r="U46" t="n">
-        <v>353.7846527006242</v>
+        <v>387.5200239484708</v>
       </c>
       <c r="V46" t="n">
-        <v>353.7846527006242</v>
+        <v>387.5200239484708</v>
       </c>
       <c r="W46" t="n">
-        <v>353.7846527006242</v>
+        <v>387.5200239484708</v>
       </c>
       <c r="X46" t="n">
-        <v>353.7846527006242</v>
+        <v>387.5200239484708</v>
       </c>
       <c r="Y46" t="n">
-        <v>353.7846527006242</v>
+        <v>387.5200239484708</v>
       </c>
     </row>
   </sheetData>
@@ -8058,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8301,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>174.6270615612551</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8538,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -9252,10 +9254,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O18" t="n">
-        <v>177.3009884841359</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K21" t="n">
-        <v>47.90390621998491</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212003</v>
       </c>
       <c r="K24" t="n">
-        <v>200.8922269696948</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>476.3749567889593</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.08896698613911</v>
+        <v>57.08896698613916</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>65.48544285212</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579835</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>162.5070303356325</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>65.48544285212</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K30" t="n">
-        <v>108.5094987082738</v>
+        <v>108.5094987082737</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>65.48544285212</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10443,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>162.5070303356325</v>
+        <v>315.495351085342</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>65.48544285212</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579835</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>476.3749567889587</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.08896698613911</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720732</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>65.48544285212</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>261.497819457984</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10917,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>315.495351085342</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.0889669861391</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11154,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>101.9014378473433</v>
+        <v>315.495351085342</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720732</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11376,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998484</v>
       </c>
       <c r="L45" t="n">
-        <v>154.2790145108655</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -23258,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>138.7054404458481</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>387.9122379443696</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23425,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>108.9366819640819</v>
       </c>
       <c r="G13" t="n">
-        <v>156.9044066543622</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
         <v>214.5288682289405</v>
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>320.8720737704703</v>
+        <v>66.65328858661354</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23589,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23625,7 +23627,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>37.65467069181011</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23729,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>23.31079366425575</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>414.089049841944</v>
@@ -23783,13 +23785,13 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>107.6233341883957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23808,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>36.92458749884383</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23859,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23871,10 +23873,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>111.3840075362419</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23908,10 +23910,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J19" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
         <v>214.5288682289405</v>
@@ -23944,16 +23946,16 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>136.210156011865</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>11.60293960205587</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,16 +23971,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>336.8276630196621</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>414.089049841944</v>
@@ -24014,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>128.2206930195069</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24066,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>63.23981549202162</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>77.3410295972858</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24206,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006115</v>
       </c>
       <c r="S23" t="n">
         <v>181.3631617334038</v>
@@ -24263,13 +24265,13 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>118.5940761930358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>17.90591119881771</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24300,7 +24302,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>90.58200798788482</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24364,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>59.84577111485503</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>56.82271835098088</v>
       </c>
       <c r="G25" t="n">
         <v>167.4465608509556</v>
@@ -24385,7 +24387,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J25" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620183</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.57441713704631</v>
+        <v>40.57441713704633</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>225.6194376234954</v>
@@ -24421,7 +24423,7 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>264.844291843569</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,19 +24451,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.494736897757122</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24537,10 +24539,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>90.3577068641434</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24573,10 +24575,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>165.5317197306519</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24588,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>55.65811072526559</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,13 +24618,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
         <v>139.0783256288916</v>
       </c>
       <c r="J28" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.57441713704631</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R28" t="n">
         <v>152.8143555761653</v>
@@ -24655,7 +24657,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>10.39861340794079</v>
       </c>
     </row>
     <row r="29">
@@ -24677,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>247.474166162078</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>150.4687201065292</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>157.3060054936845</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24765,19 +24767,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>14.27705323942851</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24822,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24853,13 +24855,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>139.0783256288916</v>
       </c>
       <c r="J31" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.57441713704631</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R31" t="n">
         <v>152.8143555761653</v>
@@ -24889,7 +24891,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
-        <v>225.6194376234954</v>
+        <v>7.573373630534462</v>
       </c>
       <c r="U31" t="n">
         <v>286.2893338015361</v>
@@ -24898,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>175.5524658530037</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S32" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>140.8098614067574</v>
       </c>
       <c r="U32" t="n">
-        <v>7.746899509194662</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25008,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25047,10 +25049,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>165.5317197306519</v>
+        <v>53.38246657340352</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.24326980857505</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>31.31742727428598</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,13 +25092,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
         <v>139.0783256288916</v>
       </c>
       <c r="J34" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>40.57441713704631</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R34" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>43.86347809954913</v>
       </c>
       <c r="I35" t="n">
         <v>163.6851955497072</v>
@@ -25199,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>127.9550955463472</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
         <v>251.2485578939812</v>
@@ -25214,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25248,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>76.57988169550578</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S36" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>17.52361544488315</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J37" t="n">
-        <v>31.83849228036694</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.57441713704631</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R37" t="n">
         <v>152.8143555761653</v>
@@ -25388,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>30.70896332692212</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>327.0451232326991</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S38" t="n">
         <v>181.3631617334038</v>
@@ -25485,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>130.237302184546</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>136.4191830929966</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>61.42352734555784</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,10 +25569,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>54.06789032787965</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J40" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R40" t="n">
         <v>152.8143555761653</v>
@@ -25631,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25643,10 +25645,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>163.6851955497072</v>
+        <v>69.07078288466425</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>261.520587255585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25713,7 +25715,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25725,7 +25727,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25761,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>120.4210546291177</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25783,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>116.2923189817591</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J43" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R43" t="n">
         <v>152.8143555761653</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>10.39861340794073</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25871,16 +25873,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>15.42828960197068</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>163.6851955497072</v>
@@ -25910,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>316.8376071076898</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25947,22 +25949,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>53.38246657340298</v>
+        <v>57.98884467712229</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26041,10 +26043,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J46" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,16 +26067,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R46" t="n">
-        <v>126.9897116713315</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>7.573373630534462</v>
       </c>
       <c r="U46" t="n">
         <v>286.2893338015361</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>625574.9424456273</v>
+        <v>625574.9424456272</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>625574.9424456271</v>
+        <v>625574.9424456273</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>625574.9424456272</v>
+        <v>625574.9424456271</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>625574.9424456271</v>
+        <v>625574.9424456272</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>625574.9424456273</v>
+        <v>625574.9424456272</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>625574.9424456271</v>
+        <v>625574.9424456272</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>625574.9424456273</v>
+        <v>625574.9424456271</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>625574.9424456272</v>
+        <v>625574.9424456269</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.06191857</v>
+      </c>
+      <c r="C2" t="n">
         <v>492625.0619185698</v>
-      </c>
-      <c r="C2" t="n">
-        <v>492625.0619185699</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>317251.3197170583</v>
+        <v>317251.3197170584</v>
       </c>
       <c r="F2" t="n">
-        <v>317251.3197170583</v>
+        <v>317251.3197170584</v>
       </c>
       <c r="G2" t="n">
-        <v>317251.3197170585</v>
+        <v>317251.3197170584</v>
       </c>
       <c r="H2" t="n">
         <v>317251.3197170584</v>
@@ -26335,25 +26337,25 @@
         <v>317251.3197170584</v>
       </c>
       <c r="J2" t="n">
-        <v>317251.3197170582</v>
+        <v>317251.3197170585</v>
       </c>
       <c r="K2" t="n">
         <v>317251.3197170584</v>
       </c>
       <c r="L2" t="n">
-        <v>317251.3197170585</v>
+        <v>317251.3197170584</v>
       </c>
       <c r="M2" t="n">
-        <v>317251.3197170585</v>
+        <v>317251.3197170584</v>
       </c>
       <c r="N2" t="n">
         <v>317251.3197170584</v>
       </c>
       <c r="O2" t="n">
-        <v>317251.3197170584</v>
+        <v>317251.3197170586</v>
       </c>
       <c r="P2" t="n">
-        <v>317251.3197170584</v>
+        <v>317251.3197170583</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26421,7 +26423,7 @@
         <v>295860.2172754402</v>
       </c>
       <c r="D4" t="n">
-        <v>295860.2172754403</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="E4" t="n">
         <v>17955.06337365307</v>
@@ -26451,13 +26453,13 @@
         <v>17955.06337365307</v>
       </c>
       <c r="N4" t="n">
-        <v>17955.06337365306</v>
+        <v>17955.06337365307</v>
       </c>
       <c r="O4" t="n">
         <v>17955.06337365307</v>
       </c>
       <c r="P4" t="n">
-        <v>17955.06337365306</v>
+        <v>17955.06337365307</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67714.14434782014</v>
+        <v>67714.14434782037</v>
       </c>
       <c r="C6" t="n">
-        <v>148483.575879368</v>
+        <v>148483.5758793679</v>
       </c>
       <c r="D6" t="n">
         <v>148483.5758793681</v>
       </c>
       <c r="E6" t="n">
-        <v>-88537.80856099402</v>
+        <v>-88537.8085609939</v>
       </c>
       <c r="F6" t="n">
-        <v>257074.5342179587</v>
+        <v>257074.5342179588</v>
       </c>
       <c r="G6" t="n">
-        <v>257074.5342179589</v>
+        <v>257074.5342179588</v>
       </c>
       <c r="H6" t="n">
         <v>257074.5342179589</v>
       </c>
       <c r="I6" t="n">
+        <v>257074.5342179588</v>
+      </c>
+      <c r="J6" t="n">
+        <v>194014.5916188527</v>
+      </c>
+      <c r="K6" t="n">
         <v>257074.5342179589</v>
       </c>
-      <c r="J6" t="n">
-        <v>194014.5916188523</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>257074.5342179588</v>
       </c>
-      <c r="L6" t="n">
-        <v>257074.5342179589</v>
-      </c>
       <c r="M6" t="n">
-        <v>171056.0003978829</v>
+        <v>171056.0003978828</v>
       </c>
       <c r="N6" t="n">
-        <v>257074.5342179589</v>
+        <v>257074.5342179588</v>
       </c>
       <c r="O6" t="n">
-        <v>257074.5342179589</v>
+        <v>257074.534217959</v>
       </c>
       <c r="P6" t="n">
-        <v>257074.5342179589</v>
+        <v>257074.5342179587</v>
       </c>
     </row>
   </sheetData>
@@ -26750,13 +26752,13 @@
         <v>301.9048087062787</v>
       </c>
       <c r="G3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="H3" t="n">
         <v>301.9048087062786</v>
       </c>
       <c r="I3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062785</v>
       </c>
       <c r="J3" t="n">
         <v>301.9048087062786</v>
@@ -26771,13 +26773,13 @@
         <v>301.9048087062786</v>
       </c>
       <c r="N3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="O3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="P3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
     </row>
     <row r="4">
@@ -26811,25 +26813,25 @@
         <v>586.1874555205541</v>
       </c>
       <c r="J4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="K4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="L4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="M4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="N4" t="n">
         <v>586.1874555205541</v>
       </c>
       <c r="O4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="P4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
     </row>
   </sheetData>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>192.1783936941173</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27421,10 +27423,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27433,19 +27435,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>185.9018423672239</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27461,7 +27463,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,16 +27472,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>184.4606679790175</v>
+        <v>176.6824547460726</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27628,13 +27630,13 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>192.9631211494366</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>169.9996104372708</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27695,22 +27697,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>7.696877384271232</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>171.1296043052299</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27792,10 +27794,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>47.2544399028796</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.32518834398849</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27862,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>216.5306486674267</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,10 +27912,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>113.7445078303085</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27938,13 +27940,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27953,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>17.38829798581125</v>
+        <v>186.0443646233628</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27995,7 +27997,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>36.78129424836629</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28035,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>178.3269633122123</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -32230,7 +32232,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I17" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J17" t="n">
         <v>103.0102241525006</v>
@@ -32251,22 +32253,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P17" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R17" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S17" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T17" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H18" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I18" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J18" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K18" t="n">
         <v>104.8606541711232</v>
@@ -32321,25 +32323,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M18" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N18" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O18" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P18" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R18" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S18" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T18" t="n">
         <v>2.617457728311981</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H19" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I19" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J19" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K19" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L19" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M19" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N19" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O19" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P19" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R19" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S19" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T19" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,31 +32700,31 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.213687673191069</v>
+        <v>1.213687673191068</v>
       </c>
       <c r="H23" t="n">
-        <v>12.42967888306804</v>
+        <v>12.42967888306803</v>
       </c>
       <c r="I23" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J23" t="n">
-        <v>103.0102241525006</v>
+        <v>103.0102241525005</v>
       </c>
       <c r="K23" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L23" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M23" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N23" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O23" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P23" t="n">
         <v>174.5298045144673</v>
@@ -32731,16 +32733,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R23" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108853</v>
       </c>
       <c r="S23" t="n">
-        <v>27.65690785284151</v>
+        <v>27.6569078528415</v>
       </c>
       <c r="T23" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393905</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528546</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,28 +32779,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757689</v>
       </c>
       <c r="H24" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I24" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J24" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454667</v>
       </c>
       <c r="K24" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L24" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M24" t="n">
         <v>164.5381207449218</v>
       </c>
       <c r="N24" t="n">
-        <v>168.8929552025813</v>
+        <v>168.8929552025812</v>
       </c>
       <c r="O24" t="n">
         <v>154.5040580932971</v>
@@ -32807,19 +32809,19 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q24" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988236</v>
       </c>
       <c r="R24" t="n">
-        <v>40.31853275515171</v>
+        <v>40.3185327551517</v>
       </c>
       <c r="S24" t="n">
         <v>12.06195155538763</v>
       </c>
       <c r="T24" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051113</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031251</v>
       </c>
       <c r="H25" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618697</v>
       </c>
       <c r="I25" t="n">
-        <v>16.37214929836672</v>
+        <v>16.37214929836671</v>
       </c>
       <c r="J25" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K25" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354489</v>
       </c>
       <c r="L25" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823736</v>
       </c>
       <c r="M25" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069441</v>
       </c>
       <c r="N25" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545557</v>
       </c>
       <c r="O25" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598721</v>
       </c>
       <c r="P25" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292339</v>
       </c>
       <c r="Q25" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464805</v>
       </c>
       <c r="R25" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S25" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031732</v>
       </c>
       <c r="T25" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786079</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,25 +32943,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I26" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J26" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K26" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L26" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M26" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N26" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O26" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P26" t="n">
         <v>174.5298045144673</v>
@@ -32968,16 +32970,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R26" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S26" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T26" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H27" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I27" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J27" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K27" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L27" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M27" t="n">
         <v>164.5381207449218</v>
@@ -33044,7 +33046,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q27" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R27" t="n">
         <v>40.31853275515171</v>
@@ -33053,10 +33055,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T27" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H28" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I28" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J28" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K28" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L28" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M28" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N28" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O28" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P28" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q28" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R28" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S28" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T28" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33178,25 +33180,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I29" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J29" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K29" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L29" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M29" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N29" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O29" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P29" t="n">
         <v>174.5298045144673</v>
@@ -33205,16 +33207,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R29" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S29" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T29" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H30" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I30" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J30" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K30" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L30" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M30" t="n">
         <v>164.5381207449218</v>
@@ -33281,7 +33283,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q30" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R30" t="n">
         <v>40.31853275515171</v>
@@ -33290,10 +33292,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T30" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H31" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I31" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J31" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K31" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L31" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M31" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N31" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O31" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P31" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q31" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R31" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S31" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T31" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33415,25 +33417,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I32" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J32" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K32" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L32" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M32" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N32" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O32" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P32" t="n">
         <v>174.5298045144673</v>
@@ -33442,16 +33444,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R32" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S32" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T32" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H33" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I33" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J33" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K33" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L33" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M33" t="n">
         <v>164.5381207449218</v>
@@ -33518,7 +33520,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q33" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R33" t="n">
         <v>40.31853275515171</v>
@@ -33527,10 +33529,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T33" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H34" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I34" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J34" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K34" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L34" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M34" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N34" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O34" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P34" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q34" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R34" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S34" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T34" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33652,25 +33654,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I35" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J35" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K35" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L35" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M35" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N35" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O35" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P35" t="n">
         <v>174.5298045144673</v>
@@ -33679,16 +33681,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R35" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S35" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T35" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H36" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I36" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J36" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K36" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L36" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M36" t="n">
         <v>164.5381207449218</v>
@@ -33755,7 +33757,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q36" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R36" t="n">
         <v>40.31853275515171</v>
@@ -33764,10 +33766,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T36" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H37" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I37" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J37" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K37" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L37" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M37" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N37" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O37" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P37" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q37" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R37" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S37" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T37" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33889,43 +33891,43 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I38" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J38" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K38" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L38" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M38" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N38" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O38" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P38" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q38" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R38" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S38" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T38" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H39" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I39" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J39" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K39" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L39" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M39" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N39" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O39" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P39" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.89280709988242</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R39" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S39" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T39" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H40" t="n">
-        <v>4.840375457618701</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I40" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J40" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K40" t="n">
-        <v>63.25153205354492</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L40" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M40" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N40" t="n">
-        <v>83.31087942545561</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O40" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P40" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R40" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S40" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T40" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,43 +34128,43 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I41" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J41" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K41" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L41" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M41" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N41" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O41" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P41" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q41" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R41" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S41" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T41" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H42" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I42" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J42" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K42" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L42" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M42" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N42" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O42" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P42" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q42" t="n">
-        <v>82.89280709988242</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R42" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S42" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T42" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H43" t="n">
-        <v>4.840375457618701</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I43" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J43" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K43" t="n">
-        <v>63.25153205354492</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L43" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M43" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N43" t="n">
-        <v>83.31087942545561</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O43" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P43" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q43" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R43" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S43" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T43" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,43 +34365,43 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I44" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J44" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K44" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L44" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M44" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N44" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O44" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P44" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q44" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R44" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S44" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T44" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U44" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H45" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I45" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J45" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K45" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L45" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M45" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N45" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O45" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P45" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q45" t="n">
-        <v>82.89280709988242</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R45" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S45" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T45" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H46" t="n">
-        <v>4.840375457618701</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I46" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J46" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K46" t="n">
-        <v>63.25153205354492</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L46" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M46" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N46" t="n">
-        <v>83.31087942545561</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O46" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P46" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q46" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R46" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S46" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T46" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34705,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35021,16 +35023,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>43.28534947792182</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35258,10 +35260,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>169.9067907798017</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K17" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L17" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M17" t="n">
         <v>432.2802359107712</v>
@@ -35896,13 +35898,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O17" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P17" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q17" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828884</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K18" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651353</v>
@@ -35972,10 +35974,10 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O18" t="n">
-        <v>189.2088021329886</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P18" t="n">
         <v>308.4914891638518</v>
@@ -36042,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L19" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M19" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N19" t="n">
         <v>127.4430518046842</v>
@@ -36057,7 +36059,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P19" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>14.92312141674913</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36218,7 +36220,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788802</v>
       </c>
       <c r="K23" t="n">
-        <v>258.4411848848628</v>
+        <v>258.4411848848627</v>
       </c>
       <c r="L23" t="n">
         <v>373.4238170675629</v>
       </c>
       <c r="M23" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N23" t="n">
-        <v>424.4951865620588</v>
+        <v>424.4951865620587</v>
       </c>
       <c r="O23" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P23" t="n">
-        <v>265.0955169306804</v>
+        <v>265.0955169306803</v>
       </c>
       <c r="Q23" t="n">
         <v>121.0739155037673</v>
@@ -36434,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>167.911442166459</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L24" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M24" t="n">
-        <v>488.1091505729034</v>
+        <v>488.1091505729033</v>
       </c>
       <c r="N24" t="n">
-        <v>516.8936174628016</v>
+        <v>513.9261999082072</v>
       </c>
       <c r="O24" t="n">
         <v>405.7701329255822</v>
@@ -36516,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766203</v>
       </c>
       <c r="L25" t="n">
         <v>108.5302095485535</v>
@@ -36531,7 +36533,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P25" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781688</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K26" t="n">
         <v>258.4411848848628</v>
@@ -36601,13 +36603,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M26" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N26" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O26" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P26" t="n">
         <v>265.0955169306804</v>
@@ -36674,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547477</v>
       </c>
       <c r="L27" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M27" t="n">
         <v>488.1091505729034</v>
@@ -36689,10 +36691,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
-        <v>152.5357508595472</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L28" t="n">
         <v>108.5302095485535</v>
@@ -36768,7 +36770,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P28" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K29" t="n">
         <v>258.4411848848628</v>
@@ -36838,13 +36840,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M29" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N29" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O29" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P29" t="n">
         <v>265.0955169306804</v>
@@ -36911,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>75.52871390503797</v>
+        <v>75.52871390503788</v>
       </c>
       <c r="L30" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M30" t="n">
         <v>488.1091505729034</v>
@@ -36990,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L31" t="n">
         <v>108.5302095485535</v>
@@ -37005,7 +37007,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P31" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K32" t="n">
         <v>258.4411848848628</v>
@@ -37075,13 +37077,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M32" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N32" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O32" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P32" t="n">
         <v>265.0955169306804</v>
@@ -37151,7 +37153,7 @@
         <v>231.4844522093428</v>
       </c>
       <c r="L33" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M33" t="n">
         <v>488.1091505729034</v>
@@ -37163,10 +37165,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P33" t="n">
-        <v>152.5357508595472</v>
+        <v>305.5240716092566</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L34" t="n">
         <v>108.5302095485535</v>
@@ -37242,7 +37244,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P34" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K35" t="n">
         <v>258.4411848848628</v>
@@ -37312,13 +37314,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M35" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N35" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O35" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P35" t="n">
         <v>265.0955169306804</v>
@@ -37385,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547477</v>
       </c>
       <c r="L36" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M36" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>513.9261999082067</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255822</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L37" t="n">
         <v>108.5302095485535</v>
@@ -37479,7 +37481,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P37" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.06093479788754</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K38" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L38" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M38" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N38" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O38" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P38" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q38" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>231.4844522093429</v>
+        <v>228.5170346547482</v>
       </c>
       <c r="L39" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M39" t="n">
         <v>488.1091505729034</v>
@@ -37634,10 +37636,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P39" t="n">
-        <v>305.5240716092566</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L40" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M40" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N40" t="n">
         <v>127.4430518046842</v>
@@ -37716,7 +37718,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P40" t="n">
-        <v>63.12350311781692</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K41" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L41" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M41" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N41" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O41" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P41" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q41" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L42" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M42" t="n">
         <v>488.1091505729034</v>
@@ -37871,13 +37873,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O42" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P42" t="n">
-        <v>91.93015837125802</v>
+        <v>305.5240716092566</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L43" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M43" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N43" t="n">
         <v>127.4430518046842</v>
@@ -37953,7 +37955,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P43" t="n">
-        <v>63.12350311781692</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.06093479788754</v>
+        <v>91.0609347978879</v>
       </c>
       <c r="K44" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L44" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M44" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N44" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O44" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P44" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.60559248828884</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K45" t="n">
-        <v>231.4844522093429</v>
+        <v>14.92312141674905</v>
       </c>
       <c r="L45" t="n">
-        <v>156.7227248725416</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M45" t="n">
         <v>488.1091505729034</v>
@@ -38108,7 +38110,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O45" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P45" t="n">
         <v>308.4914891638518</v>
@@ -38175,13 +38177,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L46" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M46" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N46" t="n">
         <v>127.4430518046842</v>
@@ -38190,7 +38192,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P46" t="n">
-        <v>63.12350311781692</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
